--- a/templates/template_0.4.0.xlsx
+++ b/templates/template_0.4.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Documents\SwissClimate\BuildingsEmissionsCalculator\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://swissclimate-my.sharepoint.com/personal/annika_schmidt_swissclimate_ch/Documents/Documents/BuildingsEmissionsCalculator/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AA474-2FB6-4C2A-82D6-F03E856743BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{B02AA474-2FB6-4C2A-82D6-F03E856743BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB282781-6CFB-4706-B94F-78B59319A140}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="170">
   <si>
     <t>Identification du batiment</t>
   </si>
@@ -661,6 +661,21 @@
   </si>
   <si>
     <t>0.4.0</t>
+  </si>
+  <si>
+    <t>Place de l'Eglise 72</t>
+  </si>
+  <si>
+    <t>Fahy</t>
+  </si>
+  <si>
+    <t>Rue du 23-Juin 40</t>
+  </si>
+  <si>
+    <t>Courgenay</t>
+  </si>
+  <si>
+    <t>Le Chêne 14</t>
   </si>
 </sst>
 </file>
@@ -1515,27 +1530,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1604,7 +1601,25 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1625,7 +1640,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7AEDE2D-C82D-4575-A54D-DABB29C0095F}" name="summary_table" displayName="summary_table" ref="B4:L5" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7AEDE2D-C82D-4575-A54D-DABB29C0095F}" name="summary_table" displayName="summary_table" ref="B4:L5" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="B4:L5" xr:uid="{F7AEDE2D-C82D-4575-A54D-DABB29C0095F}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{63CD5137-84A3-42E4-AE60-709ED5DFCB4E}" name="tot_asset_energetic_area">
@@ -1643,7 +1658,7 @@
     <tableColumn id="5" xr3:uid="{2FDAF6E5-2676-48B0-A36A-D9DA016FC9BB}" name="mean_emissions_per_area">
       <calculatedColumnFormula>AVERAGE(buildings_table[emissions_per_area])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E63C3BCE-925E-47F3-ADD1-D0B79863988C}" name="tot_mortgage_value" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{E63C3BCE-925E-47F3-ADD1-D0B79863988C}" name="tot_mortgage_value" dataDxfId="10">
       <calculatedColumnFormula>SUM(buildings_table[mortgage_value])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{8542E1F7-9828-4EBB-B234-81116766076C}" name="tot_mortgage_value_found">
@@ -1655,10 +1670,10 @@
     <tableColumn id="9" xr3:uid="{08F8424F-2BB3-4FB4-877F-34051A3A228D}" name="count_mortgage_emissions_not_found">
       <calculatedColumnFormula>COUNTBLANK(buildings_table[mortgage_emissions])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DD220F50-0E98-4469-BA00-ADF9170A3180}" name="coverage_mortgage_emissions_count" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{DD220F50-0E98-4469-BA00-ADF9170A3180}" name="coverage_mortgage_emissions_count" dataDxfId="9">
       <calculatedColumnFormula>(COUNTA(buildings_table[mortgage_emissions])/ROWS(buildings_table[mortgage_emissions]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{52EDEA81-9EE9-4362-A5A8-1AA04AF684CA}" name="coverage_mortgage_emissions_value" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{52EDEA81-9EE9-4362-A5A8-1AA04AF684CA}" name="coverage_mortgage_emissions_value" dataDxfId="8">
       <calculatedColumnFormula>summary_table[[#This Row],[tot_mortgage_value_found]]/summary_table[[#This Row],[tot_mortgage_value]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1667,24 +1682,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="buildings_table" displayName="buildings_table" ref="B5:AU6" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="B5:AU6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="buildings_table" displayName="buildings_table" ref="B5:AU8" totalsRowShown="0">
+  <autoFilter ref="B5:AU8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="46">
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EGID" dataDxfId="11"/>
-    <tableColumn id="42" xr3:uid="{FFCDB714-3B30-4406-A1CE-43D33BD45469}" name="EWID" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{64BD80A0-666C-485E-9571-E55B5F48DA7D}" name="ADDRESS" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DPLZ4" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EGID" dataDxfId="7"/>
+    <tableColumn id="42" xr3:uid="{FFCDB714-3B30-4406-A1CE-43D33BD45469}" name="EWID" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{64BD80A0-666C-485E-9571-E55B5F48DA7D}" name="ADDRESS" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DPLZ4" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="STRNAME"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DEINR"/>
-    <tableColumn id="41" xr3:uid="{F2DA6A33-0064-4A59-8970-53758BDD87D7}" name="DPLZNAME" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="LPARZ" dataDxfId="6"/>
+    <tableColumn id="41" xr3:uid="{F2DA6A33-0064-4A59-8970-53758BDD87D7}" name="DPLZNAME" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="LPARZ" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="mortgage_id"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="asset_ewid_count"/>
     <tableColumn id="46" xr3:uid="{E1559C2A-495C-4A10-BD70-17F878714D92}" name="asset_building_share"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="asset_living_area"/>
     <tableColumn id="44" xr3:uid="{C70F2F5F-2F77-480E-9528-94514505C232}" name="asset_energetic_area"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="asset_value" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="mortgage_value" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="asset_value" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="mortgage_value" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="asset_bank_share"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="GKLAS"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="GBAUJ"/>
@@ -2010,27 +2025,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
-    <col min="8" max="8" width="52.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.7265625" customWidth="1"/>
+    <col min="8" max="8" width="52.1796875" customWidth="1"/>
+    <col min="9" max="9" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -2038,7 +2053,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2091,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>62</v>
       </c>
@@ -2114,7 +2129,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5">
         <f>SUM(buildings_table[asset_energetic_area])</f>
@@ -2138,7 +2153,7 @@
       </c>
       <c r="G5" s="42">
         <f>SUM(buildings_table[mortgage_value])</f>
-        <v>0</v>
+        <v>772000</v>
       </c>
       <c r="H5">
         <f>SUMIFS(buildings_table[mortgage_value], buildings_table[mortgage_emissions], "&lt;&gt;")</f>
@@ -2146,19 +2161,19 @@
       </c>
       <c r="I5">
         <f>ROWS(buildings_table[mortgage_emissions])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>COUNTBLANK(buildings_table[mortgage_emissions])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="49">
         <f>(COUNTA(buildings_table[mortgage_emissions])/ROWS(buildings_table[mortgage_emissions]))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="49" t="e">
+      <c r="L5" s="49">
         <f>summary_table[[#This Row],[tot_mortgage_value_found]]/summary_table[[#This Row],[tot_mortgage_value]]</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2173,62 +2188,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1796875" customWidth="1"/>
+    <col min="9" max="9" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="63.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.7265625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="31" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="32" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="44" max="45" width="36" customWidth="1"/>
-    <col min="46" max="46" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.5703125" customWidth="1"/>
-    <col min="48" max="48" width="32.140625" customWidth="1"/>
+    <col min="46" max="46" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.54296875" customWidth="1"/>
+    <col min="48" max="48" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25"/>
       <c r="B1" s="50" t="s">
         <v>0</v>
@@ -2289,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
@@ -2430,7 +2445,7 @@
       </c>
       <c r="AU2" s="4"/>
     </row>
-    <row r="3" spans="1:47" s="3" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="3" customFormat="1" ht="78.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>42</v>
       </c>
@@ -2559,7 +2574,7 @@
       </c>
       <c r="AU3" s="5"/>
     </row>
-    <row r="4" spans="1:47" s="3" customFormat="1" ht="396" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="3" customFormat="1" ht="396" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>61</v>
       </c>
@@ -2630,7 +2645,7 @@
       <c r="AT4" s="5"/>
       <c r="AU4" s="5"/>
     </row>
-    <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>62</v>
       </c>
@@ -2773,37 +2788,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="D6" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="43">
+        <v>2916</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>166</v>
+      </c>
       <c r="I6" s="44"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
+      <c r="O6">
+        <v>780000</v>
+      </c>
+      <c r="P6">
+        <v>344500</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="D7" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="43">
+        <v>2950</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>168</v>
+      </c>
       <c r="I7" s="44"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
+      <c r="O7">
+        <v>435000</v>
+      </c>
+      <c r="P7">
+        <v>286000</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="D8" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="43">
+        <v>2950</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>168</v>
+      </c>
       <c r="I8" s="44"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
+      <c r="O8">
+        <v>270000</v>
+      </c>
+      <c r="P8">
+        <v>141500</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="44"/>
@@ -2813,7 +2858,7 @@
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="44"/>
@@ -2848,30 +2893,30 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7265625" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.7265625" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.7265625" customWidth="1"/>
+    <col min="20" max="20" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25"/>
       <c r="B1" s="1"/>
       <c r="C1" s="60" t="s">
@@ -2898,7 +2943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
@@ -2947,7 +2992,7 @@
       </c>
       <c r="T2" s="21"/>
     </row>
-    <row r="3" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>42</v>
       </c>
@@ -2996,7 +3041,7 @@
       </c>
       <c r="T3" s="22"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
         <v>62</v>
       </c>
@@ -3047,7 +3092,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" ht="33.5" x14ac:dyDescent="0.75">
       <c r="C7" s="45" t="s">
         <v>101</v>
       </c>
@@ -3064,6 +3109,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="369b3716-c74a-4476-a78b-8b0d44106444" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ead4e622-b2a0-4630-8097-df3c7cff1172">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E211ADBF9BDBD4D9ADE36FB24B6DB43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aac970cb6bf9f02fcb572aaceebe65ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ead4e622-b2a0-4630-8097-df3c7cff1172" xmlns:ns3="369b3716-c74a-4476-a78b-8b0d44106444" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7acf7802fa099e16bc921d5334042c71" ns2:_="" ns3:_="">
     <xsd:import namespace="ead4e622-b2a0-4630-8097-df3c7cff1172"/>
@@ -3286,17 +3342,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="369b3716-c74a-4476-a78b-8b0d44106444" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ead4e622-b2a0-4630-8097-df3c7cff1172">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3307,6 +3352,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A1E46F3-B521-42B5-AD35-16F7109F5A2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="369b3716-c74a-4476-a78b-8b0d44106444"/>
+    <ds:schemaRef ds:uri="ead4e622-b2a0-4630-8097-df3c7cff1172"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09086EA8-7415-4B0A-B27B-8C2951538472}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3325,17 +3381,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A1E46F3-B521-42B5-AD35-16F7109F5A2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="369b3716-c74a-4476-a78b-8b0d44106444"/>
-    <ds:schemaRef ds:uri="ead4e622-b2a0-4630-8097-df3c7cff1172"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA2D598-A9CD-4F4D-88E3-063123454594}">
   <ds:schemaRefs>
